--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\RequirementDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4EC2C9-7EE5-4746-8F30-C7E7A0769E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FE380C-9654-419B-8CB9-47E198A098C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="900" windowWidth="21600" windowHeight="13185" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27690" yWindow="855" windowWidth="25125" windowHeight="13185" tabRatio="903" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="209">
   <si>
     <t>NRC</t>
   </si>
@@ -528,6 +528,12 @@
     <t>// Stop DTC Setting</t>
   </si>
   <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>SID Support</t>
+  </si>
+  <si>
     <t>Create_Fault</t>
   </si>
   <si>
@@ -567,7 +573,7 @@
     <t>R1.0</t>
   </si>
   <si>
-    <t>RC01</t>
+    <t>RC02</t>
   </si>
   <si>
     <t>Local</t>
@@ -1218,13 +1224,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,10 +1238,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1249,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1254,10 +1260,10 @@
         <v>69</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,16 +1312,16 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>40</v>
@@ -1324,10 +1330,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -1375,7 +1381,7 @@
         <v>144</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1384,7 +1390,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1393,7 +1399,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1402,7 +1408,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1418,7 +1424,7 @@
         <v>145</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,7 +1432,7 @@
         <v>146</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1434,7 +1440,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1482,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1512,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,14 +1688,14 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="S3" s="9" t="s">
@@ -1730,14 +1736,14 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -1756,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
@@ -1778,7 +1784,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
@@ -1800,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
@@ -1822,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
@@ -1844,7 +1850,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -1866,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -1888,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
@@ -1910,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -1932,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -1954,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -1976,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -1998,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2020,7 +2026,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -2030,14 +2036,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -2175,10 +2180,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -2188,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -2227,10 +2232,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -2240,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
@@ -2258,7 +2263,7 @@
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -2301,7 +2306,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
@@ -2347,7 +2352,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
@@ -2369,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -2391,7 +2396,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -2413,7 +2418,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
@@ -2435,7 +2440,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -2457,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -2479,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -2501,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -2523,7 +2528,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -2545,7 +2550,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -2555,14 +2560,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3022,14 +3026,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -3048,7 +3051,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
@@ -3661,7 +3664,7 @@
         <v>68</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>36</v>
@@ -3692,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
@@ -3710,7 +3713,7 @@
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -3731,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -3741,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -3766,7 +3769,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
@@ -3827,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
@@ -3849,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -3871,7 +3874,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -3915,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -3937,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -3959,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -3981,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4003,7 +4006,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4025,7 +4028,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4182,7 +4185,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -4211,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -4249,7 +4252,7 @@
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -4272,7 +4275,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -4320,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
@@ -4342,7 +4345,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
@@ -4364,7 +4367,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -4386,7 +4389,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -4408,7 +4411,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
@@ -4430,7 +4433,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -4452,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -4474,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -4496,7 +4499,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -4518,7 +4521,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -4540,7 +4543,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -4550,14 +4553,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -4682,7 +4684,7 @@
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -4695,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -4705,21 +4707,21 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>36</v>
@@ -4736,7 +4738,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -4753,14 +4755,14 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -4779,7 +4781,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
@@ -4801,7 +4803,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
@@ -4823,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
@@ -4845,7 +4847,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
@@ -4867,7 +4869,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -4889,7 +4891,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -4911,7 +4913,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
@@ -4933,7 +4935,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -4955,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -4977,7 +4979,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -4999,7 +5001,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -5021,7 +5023,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -5043,7 +5045,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
@@ -5053,17 +5055,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5546,35 +5544,13 @@
       <c r="T17" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
@@ -5591,10 +5567,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5619,10 +5595,11 @@
     <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="28" max="28" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5652,8 +5629,12 @@
         <v>67</v>
       </c>
       <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="29"/>
+    </row>
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -5707,8 +5688,14 @@
       <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
@@ -5719,7 +5706,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -5732,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -5742,27 +5729,33 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
@@ -5773,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -5786,7 +5779,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -5803,20 +5796,26 @@
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -5840,7 +5839,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -5850,7 +5849,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
@@ -5858,8 +5857,10 @@
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -5883,7 +5884,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -5902,7 +5903,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -5926,7 +5927,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -5936,7 +5937,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
@@ -5945,7 +5946,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
@@ -5953,10 +5954,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -5969,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -5979,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
@@ -5988,7 +5989,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -6022,7 +6023,7 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
@@ -6031,7 +6032,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -6055,7 +6056,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -6065,7 +6066,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
@@ -6074,7 +6075,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>84</v>
       </c>
@@ -6082,10 +6083,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -6098,7 +6099,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -6108,7 +6109,7 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
@@ -6117,7 +6118,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -6141,7 +6142,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6151,7 +6152,7 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
@@ -6160,7 +6161,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>86</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -6194,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
@@ -6203,7 +6204,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>87</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -6227,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -6237,7 +6238,7 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
@@ -6246,7 +6247,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>88</v>
       </c>
@@ -6254,10 +6255,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -6280,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -6289,7 +6290,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>89</v>
       </c>
@@ -6297,10 +6298,10 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -6313,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -6323,7 +6324,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -6366,7 +6367,7 @@
         <v>62</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -6398,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -6415,7 +6416,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -6427,7 +6428,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
@@ -6441,10 +6442,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -6456,7 +6457,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
@@ -6485,7 +6486,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -6514,7 +6515,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
@@ -6543,7 +6544,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -6560,7 +6561,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -6572,7 +6573,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -6589,7 +6590,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -6601,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -6618,7 +6619,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -6630,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
@@ -6659,7 +6660,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -6676,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -6688,7 +6689,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
@@ -6705,7 +6706,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -6717,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
@@ -6734,7 +6735,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -6746,7 +6747,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -6775,7 +6776,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
@@ -6804,7 +6805,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -6821,7 +6822,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -6833,7 +6834,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -6850,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -6879,7 +6880,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -6908,7 +6909,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -6937,7 +6938,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -6949,14 +6950,15 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -6972,10 +6974,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U5"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7000,10 +7002,11 @@
     <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="28" max="28" width="14.28515625" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -7033,8 +7036,12 @@
         <v>67</v>
       </c>
       <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="29"/>
+    </row>
+    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -7088,8 +7095,14 @@
       <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
@@ -7100,7 +7113,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -7113,7 +7126,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -7123,27 +7136,33 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
@@ -7154,7 +7173,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -7167,7 +7186,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -7184,20 +7203,26 @@
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
@@ -7208,7 +7233,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -7221,7 +7246,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -7231,7 +7256,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
@@ -7239,8 +7264,10 @@
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
@@ -7251,7 +7278,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -7264,7 +7291,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -7283,7 +7310,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
@@ -7294,7 +7321,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -7307,7 +7334,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -7317,7 +7344,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
@@ -7326,7 +7353,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
@@ -7334,10 +7361,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -7350,7 +7377,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -7360,7 +7387,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
@@ -7369,7 +7396,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
@@ -7380,7 +7407,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -7403,7 +7430,7 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
@@ -7412,7 +7439,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
@@ -7423,7 +7450,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -7436,7 +7463,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -7446,7 +7473,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
@@ -7455,7 +7482,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>84</v>
       </c>
@@ -7463,10 +7490,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -7479,7 +7506,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -7489,7 +7516,7 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
@@ -7498,7 +7525,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
@@ -7509,7 +7536,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -7522,7 +7549,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -7532,7 +7559,7 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
@@ -7541,7 +7568,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>86</v>
       </c>
@@ -7552,7 +7579,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -7575,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
@@ -7584,7 +7611,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>87</v>
       </c>
@@ -7595,7 +7622,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -7608,7 +7635,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -7618,7 +7645,7 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
@@ -7627,7 +7654,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>88</v>
       </c>
@@ -7635,10 +7662,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -7661,7 +7688,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -7670,7 +7697,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>89</v>
       </c>
@@ -7678,10 +7705,10 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -7694,7 +7721,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -7704,7 +7731,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -7747,7 +7774,7 @@
         <v>62</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -7779,7 +7806,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -7796,7 +7823,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -7808,7 +7835,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
@@ -7822,10 +7849,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -7837,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
@@ -7866,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -7895,7 +7922,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
@@ -7924,7 +7951,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
@@ -7941,7 +7968,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -7953,7 +7980,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -7970,7 +7997,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -7982,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
@@ -7999,7 +8026,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -8011,7 +8038,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
@@ -8040,7 +8067,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -8057,7 +8084,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -8069,7 +8096,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
@@ -8086,7 +8113,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -8098,7 +8125,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
@@ -8115,7 +8142,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -8127,7 +8154,7 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -8156,7 +8183,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
@@ -8185,7 +8212,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -8202,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -8214,7 +8241,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -8231,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -8260,7 +8287,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -8289,7 +8316,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -8318,7 +8345,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -8330,7 +8357,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
@@ -8345,7 +8372,8 @@
     <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -8483,10 +8511,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -8496,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
@@ -8517,7 +8545,7 @@
         <v>68</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>36</v>
@@ -8535,23 +8563,23 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>66</v>
@@ -8569,7 +8597,7 @@
         <v>69</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>35</v>
@@ -8621,10 +8649,10 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>66</v>
@@ -8654,10 +8682,10 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
@@ -8679,10 +8707,10 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
@@ -8704,10 +8732,10 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
@@ -8729,10 +8757,10 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
@@ -8754,10 +8782,10 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
@@ -8779,10 +8807,10 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
@@ -8804,10 +8832,10 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
@@ -8829,10 +8857,10 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
@@ -8854,10 +8882,10 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
@@ -8879,10 +8907,10 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
@@ -8904,10 +8932,10 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
@@ -8917,14 +8945,13 @@
       <c r="U17" s="7"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -9075,10 +9102,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9088,7 +9115,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
@@ -9117,13 +9144,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>151</v>
@@ -9132,10 +9159,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -9145,7 +9172,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
@@ -9163,7 +9190,7 @@
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
@@ -9174,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -9226,7 +9253,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
@@ -9306,7 +9333,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
@@ -9330,7 +9357,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
@@ -9354,7 +9381,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
@@ -9378,7 +9405,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -9402,7 +9429,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
@@ -9426,7 +9453,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -9450,7 +9477,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
@@ -9474,7 +9501,7 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -9498,7 +9525,7 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\RequirementDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FE380C-9654-419B-8CB9-47E198A098C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54D5DB-BA55-49C8-B6A4-858E9D37A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="855" windowWidth="25125" windowHeight="13185" tabRatio="903" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="210">
   <si>
     <t>NRC</t>
   </si>
@@ -534,6 +534,9 @@
     <t>SID Support</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Create_Fault</t>
   </si>
   <si>
@@ -573,7 +576,7 @@
     <t>R1.0</t>
   </si>
   <si>
-    <t>RC02</t>
+    <t>RC01</t>
   </si>
   <si>
     <t>Local</t>
@@ -1224,13 +1227,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,10 +1252,10 @@
         <v>66</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,10 +1263,10 @@
         <v>69</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,16 +1315,16 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>40</v>
@@ -1330,10 +1333,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -1381,7 +1384,7 @@
         <v>144</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -1390,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -1399,7 +1402,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -1408,7 +1411,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1424,7 +1427,7 @@
         <v>145</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,7 +1435,7 @@
         <v>146</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,7 +1443,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1456,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1475,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1499,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1539,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1547,7 @@
         <v>140</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1560,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1577,19 +1580,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -1612,12 +1615,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -1651,19 +1655,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1688,27 +1695,35 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -1732,24 +1747,32 @@
         <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -1762,16 +1785,25 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -1784,16 +1816,25 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -1806,16 +1847,17 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -1828,16 +1870,17 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -1850,16 +1893,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -1872,16 +1916,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -1894,16 +1939,17 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -1916,16 +1962,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -1938,16 +1985,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -1960,16 +2008,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -1982,16 +2031,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2004,16 +2054,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2026,16 +2077,17 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2048,9 +2100,10 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2059,10 +2112,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T5"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2079,19 +2132,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2114,12 +2167,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -2153,19 +2207,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2180,10 +2237,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -2193,31 +2250,28 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2232,10 +2286,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -2245,31 +2299,28 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2288,12 +2339,13 @@
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2306,18 +2358,19 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2334,12 +2387,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2352,16 +2406,17 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2374,16 +2429,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2396,16 +2452,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2418,16 +2475,17 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2440,16 +2498,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2462,16 +2521,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2484,16 +2544,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2506,16 +2567,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2528,16 +2590,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2550,16 +2613,17 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2572,8 +2636,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2583,10 +2647,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2603,19 +2667,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2638,12 +2702,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -2677,19 +2742,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -2715,17 +2783,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2751,17 +2820,18 @@
         <v>66</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2778,12 +2848,13 @@
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2800,12 +2871,13 @@
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2820,12 +2892,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2840,12 +2913,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2860,12 +2934,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2880,12 +2955,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2900,12 +2976,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2920,12 +2997,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2940,12 +3018,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2960,12 +3039,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2980,12 +3060,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3000,12 +3081,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3020,12 +3102,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3038,8 +3121,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3049,10 +3132,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3069,19 +3152,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3104,12 +3187,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -3143,19 +3227,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3181,17 +3268,18 @@
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3217,17 +3305,18 @@
         <v>66</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -3244,12 +3333,13 @@
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3266,12 +3356,13 @@
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3286,12 +3377,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3306,12 +3398,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3326,12 +3419,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3346,12 +3440,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3366,12 +3461,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3386,12 +3482,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3406,12 +3503,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3426,12 +3524,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3446,12 +3545,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3466,12 +3566,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3486,12 +3587,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3504,8 +3606,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3515,10 +3617,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3535,19 +3637,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3570,12 +3672,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -3609,19 +3712,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3651,26 +3757,23 @@
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3695,31 +3798,28 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -3734,7 +3834,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -3744,18 +3844,19 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3769,7 +3870,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="9" t="s">
@@ -3782,12 +3883,13 @@
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3812,12 +3914,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3830,16 +3933,17 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3852,16 +3956,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3874,16 +3979,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3900,12 +4006,13 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3918,16 +4025,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3940,16 +4048,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3962,16 +4071,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3984,16 +4094,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -4006,16 +4117,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -4028,22 +4140,23 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4054,10 +4167,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4074,19 +4187,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -4109,12 +4222,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -4148,19 +4262,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -4185,36 +4302,33 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -4239,26 +4353,23 @@
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -4275,18 +4386,19 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="E6" s="2"/>
@@ -4305,12 +4417,13 @@
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="E7" s="2"/>
@@ -4323,16 +4436,17 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="E8" s="2"/>
@@ -4345,16 +4459,17 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="E9" s="3"/>
@@ -4367,16 +4482,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="E10" s="2"/>
@@ -4389,16 +4505,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="E11" s="2"/>
@@ -4411,16 +4528,17 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="E12" s="2"/>
@@ -4433,16 +4551,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="E13" s="2"/>
@@ -4455,16 +4574,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="E14" s="2"/>
@@ -4477,16 +4597,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="E15" s="2"/>
@@ -4499,16 +4620,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="E16" s="2"/>
@@ -4521,16 +4643,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="E17" s="4"/>
@@ -4543,16 +4666,17 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4565,8 +4689,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4576,10 +4700,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4596,19 +4720,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -4631,12 +4755,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -4670,21 +4795,24 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -4697,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -4707,27 +4835,28 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -4738,7 +4867,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -4754,21 +4883,22 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -4781,16 +4911,17 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -4803,16 +4934,17 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -4825,16 +4957,17 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -4847,16 +4980,17 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -4869,16 +5003,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -4891,16 +5026,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -4913,16 +5049,17 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -4935,16 +5072,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -4957,16 +5095,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -4979,16 +5118,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -5001,16 +5141,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -5023,16 +5164,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -5045,16 +5187,17 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5067,8 +5210,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5078,10 +5221,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5096,19 +5239,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5133,12 +5276,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -5174,19 +5318,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -5209,17 +5356,18 @@
         <v>66</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -5242,17 +5390,18 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -5271,12 +5420,13 @@
       <c r="L5" s="7"/>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -5295,12 +5445,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -5319,12 +5470,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -5340,12 +5492,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -5362,12 +5515,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -5384,12 +5538,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -5406,12 +5561,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5428,12 +5584,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5450,12 +5607,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5472,12 +5630,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5494,12 +5653,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5516,12 +5676,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5538,12 +5699,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5555,8 +5717,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5567,10 +5729,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5586,20 +5748,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -5625,16 +5787,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AC1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -5677,25 +5840,28 @@
         <v>73</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
@@ -5706,7 +5872,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -5719,7 +5885,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -5729,33 +5895,34 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
@@ -5766,7 +5933,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -5779,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -5795,27 +5962,28 @@
         <v>29</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
@@ -5826,7 +5994,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -5839,7 +6007,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -5849,18 +6017,19 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
@@ -5871,7 +6040,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -5884,7 +6053,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -5898,12 +6067,13 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
@@ -5914,7 +6084,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -5927,7 +6097,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -5937,16 +6107,17 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
@@ -5954,10 +6125,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -5970,7 +6141,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -5980,16 +6151,17 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
@@ -6000,7 +6172,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -6023,16 +6195,17 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
@@ -6043,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -6056,7 +6229,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -6066,16 +6239,17 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>84</v>
       </c>
@@ -6083,10 +6257,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -6099,7 +6273,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -6109,16 +6283,17 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
@@ -6129,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -6142,7 +6317,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6152,16 +6327,17 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>86</v>
       </c>
@@ -6172,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -6195,16 +6371,17 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>87</v>
       </c>
@@ -6215,7 +6392,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -6228,7 +6405,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -6238,16 +6415,17 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>88</v>
       </c>
@@ -6255,10 +6433,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -6281,16 +6459,17 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>89</v>
       </c>
@@ -6298,10 +6477,10 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -6314,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -6324,16 +6503,17 @@
         <v>34</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>90</v>
       </c>
@@ -6367,16 +6547,17 @@
         <v>62</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>91</v>
       </c>
@@ -6399,13 +6580,13 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>92</v>
       </c>
@@ -6416,7 +6597,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -6428,13 +6609,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>93</v>
       </c>
@@ -6442,10 +6623,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -6457,13 +6638,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>94</v>
       </c>
@@ -6486,13 +6667,13 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -6515,13 +6696,13 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>96</v>
       </c>
@@ -6544,13 +6725,13 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>97</v>
       </c>
@@ -6561,7 +6742,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -6573,13 +6754,13 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>98</v>
       </c>
@@ -6590,7 +6771,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -6602,13 +6783,13 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>99</v>
       </c>
@@ -6619,7 +6800,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -6631,13 +6812,13 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>100</v>
       </c>
@@ -6660,13 +6841,13 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -6677,7 +6858,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -6689,13 +6870,13 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>102</v>
       </c>
@@ -6706,7 +6887,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -6718,13 +6899,13 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>103</v>
       </c>
@@ -6735,7 +6916,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -6747,13 +6928,13 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>104</v>
       </c>
@@ -6776,13 +6957,13 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
@@ -6805,7 +6986,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -6822,7 +7003,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -6834,7 +7015,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -6851,7 +7032,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -6880,7 +7061,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -6909,7 +7090,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -6938,7 +7119,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -6950,7 +7131,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
@@ -6958,12 +7139,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6974,10 +7155,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6993,20 +7174,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="6" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -7032,16 +7213,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AC1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -7084,25 +7266,28 @@
         <v>73</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
@@ -7113,7 +7298,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
@@ -7126,7 +7311,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -7136,33 +7321,34 @@
         <v>15</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
@@ -7173,7 +7359,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -7186,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -7202,27 +7388,28 @@
         <v>29</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
@@ -7233,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -7246,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -7256,18 +7443,19 @@
         <v>16</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
@@ -7278,7 +7466,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -7291,7 +7479,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -7305,12 +7493,13 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
@@ -7321,7 +7510,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -7334,7 +7523,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>15</v>
@@ -7344,16 +7533,17 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
@@ -7361,10 +7551,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -7377,7 +7567,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>15</v>
@@ -7387,16 +7577,17 @@
         <v>18</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
@@ -7407,7 +7598,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -7430,16 +7621,17 @@
         <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
@@ -7450,7 +7642,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -7463,7 +7655,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>15</v>
@@ -7473,16 +7665,17 @@
         <v>23</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>84</v>
       </c>
@@ -7490,10 +7683,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -7506,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>15</v>
@@ -7516,16 +7709,17 @@
         <v>24</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>85</v>
       </c>
@@ -7536,7 +7730,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7" t="s">
@@ -7549,7 +7743,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -7559,16 +7753,17 @@
         <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>86</v>
       </c>
@@ -7579,7 +7774,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
@@ -7602,16 +7797,17 @@
         <v>9</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>87</v>
       </c>
@@ -7622,7 +7818,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
@@ -7635,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>15</v>
@@ -7645,16 +7841,17 @@
         <v>10</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>88</v>
       </c>
@@ -7662,10 +7859,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -7688,16 +7885,17 @@
         <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>89</v>
       </c>
@@ -7705,10 +7903,10 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7" t="s">
@@ -7721,7 +7919,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>15</v>
@@ -7731,16 +7929,17 @@
         <v>34</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>90</v>
       </c>
@@ -7774,16 +7973,17 @@
         <v>62</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>91</v>
       </c>
@@ -7806,13 +8006,13 @@
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>92</v>
       </c>
@@ -7823,7 +8023,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -7835,13 +8035,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>93</v>
       </c>
@@ -7849,10 +8049,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -7864,13 +8064,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>94</v>
       </c>
@@ -7893,13 +8093,13 @@
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -7922,13 +8122,13 @@
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>96</v>
       </c>
@@ -7951,13 +8151,13 @@
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>97</v>
       </c>
@@ -7968,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -7980,13 +8180,13 @@
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>98</v>
       </c>
@@ -7997,7 +8197,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -8009,13 +8209,13 @@
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>99</v>
       </c>
@@ -8026,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -8038,13 +8238,13 @@
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>100</v>
       </c>
@@ -8067,13 +8267,13 @@
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8084,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -8096,13 +8296,13 @@
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>102</v>
       </c>
@@ -8113,7 +8313,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -8125,13 +8325,13 @@
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>103</v>
       </c>
@@ -8142,7 +8342,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -8154,13 +8354,13 @@
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>104</v>
       </c>
@@ -8183,13 +8383,13 @@
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
@@ -8212,7 +8412,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>15</v>
@@ -8229,7 +8429,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -8241,7 +8441,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>15</v>
@@ -8258,7 +8458,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -8287,7 +8487,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -8316,7 +8516,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -8345,7 +8545,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -8357,7 +8557,7 @@
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>15</v>
@@ -8373,12 +8573,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8388,10 +8588,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8409,19 +8609,19 @@
     <col min="12" max="12" width="26.28515625" style="6" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -8445,12 +8645,13 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -8487,19 +8688,22 @@
         <v>73</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -8511,10 +8715,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -8524,34 +8728,31 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -8563,47 +8764,44 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="23"/>
       <c r="E5" s="2"/>
@@ -8624,19 +8822,16 @@
       <c r="O5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="23"/>
       <c r="E6" s="2"/>
@@ -8649,27 +8844,24 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="23"/>
       <c r="E7" s="2"/>
@@ -8682,19 +8874,20 @@
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="23"/>
       <c r="E8" s="2"/>
@@ -8707,19 +8900,20 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="23"/>
       <c r="E9" s="3"/>
@@ -8732,19 +8926,20 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="23"/>
       <c r="E10" s="2"/>
@@ -8757,19 +8952,20 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="23"/>
       <c r="E11" s="2"/>
@@ -8782,19 +8978,20 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="23"/>
       <c r="E12" s="2"/>
@@ -8807,19 +9004,20 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="23"/>
       <c r="E13" s="2"/>
@@ -8832,19 +9030,20 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="23"/>
       <c r="E14" s="2"/>
@@ -8857,19 +9056,20 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="23"/>
       <c r="E15" s="2"/>
@@ -8882,19 +9082,20 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="23"/>
       <c r="E16" s="2"/>
@@ -8907,19 +9108,20 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="23"/>
       <c r="E17" s="4"/>
@@ -8932,19 +9134,20 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8956,8 +9159,8 @@
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8968,10 +9171,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8988,19 +9191,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -9025,12 +9228,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>154</v>
       </c>
@@ -9070,19 +9274,22 @@
         <v>73</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -9102,10 +9309,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9115,42 +9322,43 @@
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>151</v>
@@ -9159,10 +9367,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -9172,36 +9380,37 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
@@ -9227,12 +9436,13 @@
         <v>66</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -9253,18 +9463,19 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
@@ -9285,12 +9496,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9"/>
@@ -9311,12 +9523,13 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="9"/>
@@ -9333,16 +9546,17 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9"/>
@@ -9357,16 +9571,17 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
@@ -9381,16 +9596,17 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="24"/>
       <c r="C12" s="9"/>
@@ -9405,16 +9621,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="24"/>
       <c r="C13" s="9"/>
@@ -9429,16 +9646,17 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="24"/>
       <c r="C14" s="9"/>
@@ -9453,16 +9671,17 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
@@ -9477,16 +9696,17 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="24"/>
       <c r="C16" s="9"/>
@@ -9501,16 +9721,17 @@
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="24"/>
       <c r="C17" s="9"/>
@@ -9525,16 +9746,17 @@
         <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9546,8 +9768,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/RequirementDB/RequirementDB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\RequirementDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54D5DB-BA55-49C8-B6A4-858E9D37A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4626A27-6CBD-4F44-A492-1E2317AD430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="210">
   <si>
     <t>NRC</t>
   </si>
@@ -1459,7 +1459,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,8 +1562,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P2" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1698,12 +1698,14 @@
         <v>182</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="Q3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1747,12 +1749,14 @@
         <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1787,19 +1791,11 @@
       <c r="L5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -1818,19 +1814,11 @@
       <c r="L6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -2103,7 +2091,6 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:U1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3134,7 +3121,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
